--- a/data/trans_orig/IP07C05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C05-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E278539D-8629-4811-B5FD-CA6298EA5E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF1B2717-2B20-432C-A793-31E08B5419E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{17ABAF6F-C396-4637-92F2-15125201AE4D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9BC4E092-E5DF-4BF2-A69E-E4D97ECEFC57}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -86,1819 +86,1819 @@
     <t>1,0%</t>
   </si>
   <si>
-    <t>5,08%</t>
+    <t>5,09%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  triste en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  triste en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>1,44%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  triste en 2023 (Tasa respuesta: 30,05%)</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
   </si>
   <si>
     <t>24,7%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  triste en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  triste en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  triste en 2023 (Tasa respuesta: 30,05%)</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
+    <t>35,27%</t>
   </si>
   <si>
     <t>33,33%</t>
   </si>
   <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
   </si>
   <si>
     <t>31,24%</t>
   </si>
   <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
   </si>
   <si>
     <t>53,41%</t>
   </si>
   <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
   </si>
   <si>
     <t>53,64%</t>
   </si>
   <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
   </si>
   <si>
     <t>53,51%</t>
   </si>
   <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
   </si>
 </sst>
 </file>
@@ -2310,7 +2310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0012CEFB-ECCD-4BC7-B3FE-8EAC73A2E88D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713AC0B1-99C5-4A3E-8517-63328C411BFD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3050,13 +3050,13 @@
         <v>1288</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3071,7 +3071,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3080,13 +3080,13 @@
         <v>1824</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3101,13 @@
         <v>644</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3116,13 +3116,13 @@
         <v>793</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -3131,13 +3131,13 @@
         <v>1437</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,13 +3152,13 @@
         <v>3405</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -3167,13 +3167,13 @@
         <v>7535</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -3182,13 +3182,13 @@
         <v>10940</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,13 +3203,13 @@
         <v>12671</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -3218,13 +3218,13 @@
         <v>13799</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -3233,13 +3233,13 @@
         <v>26470</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,13 +3254,13 @@
         <v>31033</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>44</v>
@@ -3269,13 +3269,13 @@
         <v>30863</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>90</v>
@@ -3284,13 +3284,13 @@
         <v>61896</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3358,13 @@
         <v>1885</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3373,13 +3373,13 @@
         <v>2339</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -3391,10 +3391,10 @@
         <v>60</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,13 +3409,13 @@
         <v>1745</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -3424,7 +3424,7 @@
         <v>5331</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>150</v>
@@ -3595,10 +3595,10 @@
         <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,7 +3654,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3673,7 +3673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027853BE-EACA-400B-B862-E6CC8BA1206F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C630D6-2C8C-4703-8408-B2B145367FE6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3690,7 +3690,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3797,13 +3797,13 @@
         <v>823</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3812,13 +3812,13 @@
         <v>627</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3827,13 +3827,13 @@
         <v>1450</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3863,13 @@
         <v>627</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3878,7 +3878,7 @@
         <v>627</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>190</v>
+        <v>68</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
@@ -3917,10 +3917,10 @@
         <v>195</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M6" s="7">
         <v>30</v>
@@ -3929,13 +3929,13 @@
         <v>21752</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,13 +3950,13 @@
         <v>16163</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -3965,13 +3965,13 @@
         <v>17631</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M7" s="7">
         <v>47</v>
@@ -3980,13 +3980,13 @@
         <v>33794</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,13 +4001,13 @@
         <v>17965</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
@@ -4016,13 +4016,13 @@
         <v>21199</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M8" s="7">
         <v>57</v>
@@ -4031,13 +4031,13 @@
         <v>39164</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4105,13 @@
         <v>1954</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4120,13 +4120,13 @@
         <v>3071</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -4138,10 +4138,10 @@
         <v>152</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,7 +4159,7 @@
         <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>226</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>227</v>
@@ -4189,10 +4189,10 @@
         <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4207,13 @@
         <v>43829</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H12" s="7">
         <v>52</v>
@@ -4222,13 +4222,13 @@
         <v>37418</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M12" s="7">
         <v>114</v>
@@ -4237,13 +4237,13 @@
         <v>81247</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4258,13 @@
         <v>65540</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H13" s="7">
         <v>90</v>
@@ -4273,13 +4273,13 @@
         <v>61390</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M13" s="7">
         <v>186</v>
@@ -4288,13 +4288,13 @@
         <v>126930</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4309,13 @@
         <v>109569</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
         <v>131</v>
@@ -4324,13 +4324,13 @@
         <v>91946</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
         <v>292</v>
@@ -4339,13 +4339,13 @@
         <v>201516</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,13 +4413,13 @@
         <v>607</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4428,13 +4428,13 @@
         <v>3605</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>144</v>
+        <v>264</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -4443,13 +4443,13 @@
         <v>4212</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4464,13 @@
         <v>777</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4479,13 +4479,13 @@
         <v>768</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4494,13 +4494,13 @@
         <v>1545</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4515,13 @@
         <v>10907</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -4530,13 +4530,13 @@
         <v>12350</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M18" s="7">
         <v>34</v>
@@ -4545,13 +4545,13 @@
         <v>23257</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,13 +4566,13 @@
         <v>19367</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -4581,13 +4581,13 @@
         <v>18870</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -4596,13 +4596,13 @@
         <v>38236</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4617,13 @@
         <v>24494</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -4632,13 +4632,13 @@
         <v>25209</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M20" s="7">
         <v>71</v>
@@ -4647,13 +4647,13 @@
         <v>49703</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4721,13 @@
         <v>3384</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -4736,13 +4736,13 @@
         <v>7303</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>301</v>
+        <v>66</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -4751,13 +4751,13 @@
         <v>10687</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4772,13 @@
         <v>4650</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>153</v>
+        <v>308</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -4787,13 +4787,13 @@
         <v>7317</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>64</v>
+        <v>310</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -4802,13 +4802,13 @@
         <v>11967</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4823,13 @@
         <v>64946</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H24" s="7">
         <v>86</v>
@@ -4838,13 +4838,13 @@
         <v>61309</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M24" s="7">
         <v>178</v>
@@ -4853,13 +4853,13 @@
         <v>126256</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>319</v>
+        <v>124</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>320</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,13 +4874,13 @@
         <v>101070</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H25" s="7">
         <v>139</v>
@@ -4889,13 +4889,13 @@
         <v>97891</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M25" s="7">
         <v>287</v>
@@ -4904,13 +4904,13 @@
         <v>198960</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4925,13 @@
         <v>152028</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>331</v>
+        <v>130</v>
       </c>
       <c r="H26" s="7">
         <v>198</v>
@@ -4940,13 +4940,13 @@
         <v>138354</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>334</v>
+        <v>252</v>
       </c>
       <c r="M26" s="7">
         <v>420</v>
@@ -5017,7 +5017,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5036,7 +5036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44352EE1-F880-4E9B-9E9A-FDFC0F640534}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C918C1-5D7C-4CBB-AD73-3BB708011A32}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5181,7 +5181,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5190,13 +5190,13 @@
         <v>891</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5211,13 @@
         <v>713</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -5226,13 +5226,13 @@
         <v>1234</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -5241,10 +5241,10 @@
         <v>1947</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>349</v>
@@ -5262,13 +5262,13 @@
         <v>2513</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -5277,13 +5277,13 @@
         <v>6231</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>354</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>355</v>
+        <v>194</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -5292,13 +5292,13 @@
         <v>8743</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>357</v>
+        <v>156</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,13 +5313,13 @@
         <v>11227</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -5328,13 +5328,13 @@
         <v>8719</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -5343,13 +5343,13 @@
         <v>19946</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,13 +5364,13 @@
         <v>21294</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -5379,13 +5379,13 @@
         <v>14422</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M8" s="7">
         <v>50</v>
@@ -5394,13 +5394,13 @@
         <v>35717</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,13 +5468,13 @@
         <v>644</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>378</v>
+        <v>148</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5483,13 +5483,13 @@
         <v>1745</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -5498,13 +5498,13 @@
         <v>2389</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>382</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,13 +5519,13 @@
         <v>1866</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>381</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -5534,13 +5534,13 @@
         <v>6277</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -5549,13 +5549,13 @@
         <v>8144</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>70</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,13 +5570,13 @@
         <v>32915</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H12" s="7">
         <v>57</v>
@@ -5585,13 +5585,13 @@
         <v>39669</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="M12" s="7">
         <v>103</v>
@@ -5600,13 +5600,13 @@
         <v>72584</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,13 +5621,13 @@
         <v>82859</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H13" s="7">
         <v>111</v>
@@ -5636,13 +5636,13 @@
         <v>75842</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>404</v>
+        <v>250</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="M13" s="7">
         <v>224</v>
@@ -5651,13 +5651,13 @@
         <v>158701</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,13 +5672,13 @@
         <v>118779</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>404</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H14" s="7">
         <v>169</v>
@@ -5687,13 +5687,13 @@
         <v>120464</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="M14" s="7">
         <v>330</v>
@@ -5702,13 +5702,13 @@
         <v>239244</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,7 +5782,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5797,7 +5797,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5812,7 +5812,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,13 +5827,13 @@
         <v>713</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -5842,13 +5842,13 @@
         <v>792</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -5857,13 +5857,13 @@
         <v>1505</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,13 +5878,13 @@
         <v>9654</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>425</v>
+        <v>346</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -5893,13 +5893,13 @@
         <v>12071</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>428</v>
+        <v>121</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="M18" s="7">
         <v>31</v>
@@ -5908,13 +5908,13 @@
         <v>21725</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>432</v>
+        <v>344</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>312</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,13 +5929,13 @@
         <v>25388</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>433</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -5944,13 +5944,13 @@
         <v>29202</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>77</v>
@@ -5959,13 +5959,13 @@
         <v>54590</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5980,13 +5980,13 @@
         <v>39747</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -5995,13 +5995,13 @@
         <v>29025</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -6010,13 +6010,13 @@
         <v>68773</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>449</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6084,13 +6084,13 @@
         <v>1535</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -6099,13 +6099,13 @@
         <v>1745</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>382</v>
+        <v>224</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>63</v>
+        <v>443</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -6114,13 +6114,13 @@
         <v>3281</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6135,10 +6135,10 @@
         <v>3292</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>154</v>
@@ -6150,13 +6150,13 @@
         <v>8304</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -6165,13 +6165,13 @@
         <v>11596</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6186,13 +6186,13 @@
         <v>45081</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>460</v>
+        <v>157</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="H24" s="7">
         <v>83</v>
@@ -6201,13 +6201,13 @@
         <v>57970</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="M24" s="7">
         <v>147</v>
@@ -6216,13 +6216,13 @@
         <v>103052</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,13 +6237,13 @@
         <v>119474</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="H25" s="7">
         <v>164</v>
@@ -6252,13 +6252,13 @@
         <v>113763</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>241</v>
+        <v>464</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="M25" s="7">
         <v>329</v>
@@ -6267,13 +6267,13 @@
         <v>233236</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6288,13 +6288,13 @@
         <v>179821</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H26" s="7">
         <v>231</v>
@@ -6303,13 +6303,13 @@
         <v>163912</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="M26" s="7">
         <v>475</v>
@@ -6318,13 +6318,13 @@
         <v>343733</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,7 +6380,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6399,7 +6399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB93A750-EBB6-45BC-B92E-B8E5CBA9AD9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D60C5E8-1E9A-4ACB-AA08-0B66649F1463}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6416,7 +6416,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6529,7 +6529,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6538,13 +6538,13 @@
         <v>989</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6553,13 +6553,13 @@
         <v>989</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,13 +6574,13 @@
         <v>916</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>484</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6595,7 +6595,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6610,7 +6610,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,13 +6625,13 @@
         <v>1228</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>488</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6640,13 +6640,13 @@
         <v>1168</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -6655,13 +6655,13 @@
         <v>2397</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,13 +6676,13 @@
         <v>6625</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -6691,13 +6691,13 @@
         <v>4113</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -6706,13 +6706,13 @@
         <v>10738</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6727,13 @@
         <v>8148</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -6742,13 +6742,13 @@
         <v>7640</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>513</v>
+        <v>95</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -6757,13 +6757,13 @@
         <v>15787</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6831,13 +6831,13 @@
         <v>2774</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>512</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>513</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -6846,13 +6846,13 @@
         <v>2806</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>382</v>
+        <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -6861,13 +6861,13 @@
         <v>5581</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>517</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6882,13 +6882,13 @@
         <v>3717</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -6897,13 +6897,13 @@
         <v>1184</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -6912,13 +6912,13 @@
         <v>4902</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>529</v>
+        <v>224</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,13 +6933,13 @@
         <v>31631</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="H12" s="7">
         <v>21</v>
@@ -6948,13 +6948,13 @@
         <v>14535</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="M12" s="7">
         <v>50</v>
@@ -6966,10 +6966,10 @@
         <v>158</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,13 +6984,13 @@
         <v>56727</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -6999,13 +6999,13 @@
         <v>53474</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>246</v>
+        <v>537</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>542</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -7014,13 +7014,13 @@
         <v>110201</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,13 +7035,13 @@
         <v>102254</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="H14" s="7">
         <v>99</v>
@@ -7050,13 +7050,13 @@
         <v>76088</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="M14" s="7">
         <v>214</v>
@@ -7065,13 +7065,13 @@
         <v>178342</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,7 +7145,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7154,13 +7154,13 @@
         <v>732</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>378</v>
+        <v>552</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7169,13 +7169,13 @@
         <v>732</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7196,7 +7196,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -7211,7 +7211,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>151</v>
+        <v>556</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -7226,7 +7226,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>560</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,13 +7241,13 @@
         <v>4972</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -7256,13 +7256,13 @@
         <v>4983</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>188</v>
+        <v>561</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -7271,13 +7271,13 @@
         <v>9956</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7292,13 +7292,13 @@
         <v>15894</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>353</v>
+        <v>566</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -7307,13 +7307,13 @@
         <v>9922</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
@@ -7322,13 +7322,13 @@
         <v>25815</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7343,13 +7343,13 @@
         <v>32294</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -7358,13 +7358,13 @@
         <v>24911</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>580</v>
       </c>
       <c r="M20" s="7">
         <v>80</v>
@@ -7373,13 +7373,13 @@
         <v>57205</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7447,13 +7447,13 @@
         <v>2774</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -7462,13 +7462,13 @@
         <v>4527</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>586</v>
+        <v>141</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -7477,13 +7477,13 @@
         <v>7301</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>585</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>379</v>
+        <v>586</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7498,13 +7498,13 @@
         <v>4634</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>589</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -7513,13 +7513,13 @@
         <v>1184</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>224</v>
+        <v>591</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -7531,7 +7531,7 @@
         <v>592</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>382</v>
+        <v>520</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>593</v>
@@ -7600,7 +7600,7 @@
         <v>79246</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>603</v>
@@ -7743,7 +7743,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C05-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF1B2717-2B20-432C-A793-31E08B5419E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C25751C9-52E8-4D23-861B-75114D7B531F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9BC4E092-E5DF-4BF2-A69E-E4D97ECEFC57}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B808309A-567B-4DC7-A878-A5DF30A8460E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="610">
   <si>
     <t>Menores según frecuencia de sentirse  triste en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,1831 +74,1801 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>1,0%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>6,43%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
     <t>0,52%</t>
   </si>
   <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  triste en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  triste en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
   </si>
   <si>
     <t>13,84%</t>
   </si>
   <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  triste en 2023 (Tasa respuesta: 30,05%)</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  triste en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  triste en 2016 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  triste en 2023 (Tasa respuesta: 30,05%)</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
   </si>
 </sst>
 </file>
@@ -2310,7 +2280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713AC0B1-99C5-4A3E-8517-63328C411BFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6846049E-413F-411C-80DD-CF4F6F76882F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2428,10 +2398,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2443,16 +2413,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>462</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -2467,7 +2437,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -2479,31 +2449,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>614</v>
+        <v>1274</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1274</v>
+        <v>614</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -2530,10 +2500,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D6" s="7">
-        <v>4421</v>
+        <v>10352</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
@@ -2545,10 +2515,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>10352</v>
+        <v>4421</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2581,10 +2551,10 @@
         <v>36</v>
       </c>
       <c r="C7" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>14032</v>
+        <v>13282</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>37</v>
@@ -2596,10 +2566,10 @@
         <v>39</v>
       </c>
       <c r="H7" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I7" s="7">
-        <v>13282</v>
+        <v>14032</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2632,10 +2602,10 @@
         <v>46</v>
       </c>
       <c r="C8" s="7">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" s="7">
-        <v>23438</v>
+        <v>20644</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>47</v>
@@ -2647,10 +2617,10 @@
         <v>49</v>
       </c>
       <c r="H8" s="7">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I8" s="7">
-        <v>20644</v>
+        <v>23438</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -2683,25 +2653,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>69</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46014</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="7">
         <v>64</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>42505</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="7">
-        <v>69</v>
-      </c>
-      <c r="I9" s="7">
-        <v>46014</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>56</v>
@@ -2736,31 +2706,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>597</v>
+        <v>1340</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>59</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1340</v>
+        <v>597</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>61</v>
@@ -2787,31 +2757,31 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>487</v>
+        <v>3264</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>3264</v>
+        <v>487</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>69</v>
@@ -2838,10 +2808,10 @@
         <v>26</v>
       </c>
       <c r="C12" s="7">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="7">
-        <v>22869</v>
+        <v>20765</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>73</v>
@@ -2853,10 +2823,10 @@
         <v>75</v>
       </c>
       <c r="H12" s="7">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I12" s="7">
-        <v>20765</v>
+        <v>22869</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>76</v>
@@ -2889,10 +2859,10 @@
         <v>36</v>
       </c>
       <c r="C13" s="7">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D13" s="7">
-        <v>47090</v>
+        <v>48305</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>82</v>
@@ -2904,10 +2874,10 @@
         <v>84</v>
       </c>
       <c r="H13" s="7">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I13" s="7">
-        <v>48305</v>
+        <v>47090</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>85</v>
@@ -2940,10 +2910,10 @@
         <v>46</v>
       </c>
       <c r="C14" s="7">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="D14" s="7">
-        <v>145787</v>
+        <v>115977</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>91</v>
@@ -2955,10 +2925,10 @@
         <v>93</v>
       </c>
       <c r="H14" s="7">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="I14" s="7">
-        <v>115977</v>
+        <v>145787</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>94</v>
@@ -2991,25 +2961,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>284</v>
+      </c>
+      <c r="D15" s="7">
+        <v>189652</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="7">
         <v>327</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>216831</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="7">
-        <v>284</v>
-      </c>
-      <c r="I15" s="7">
-        <v>189652</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>56</v>
@@ -3044,34 +3014,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>1288</v>
+        <v>537</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>101</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>537</v>
+        <v>1288</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3080,13 +3050,13 @@
         <v>1824</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,31 +3068,31 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>644</v>
+        <v>793</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>793</v>
+        <v>644</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -3131,13 +3101,13 @@
         <v>1437</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,10 +3116,10 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>3405</v>
+        <v>7535</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>111</v>
@@ -3161,10 +3131,10 @@
         <v>113</v>
       </c>
       <c r="H18" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>7535</v>
+        <v>3405</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>114</v>
@@ -3197,10 +3167,10 @@
         <v>36</v>
       </c>
       <c r="C19" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D19" s="7">
-        <v>12671</v>
+        <v>13799</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>120</v>
@@ -3212,10 +3182,10 @@
         <v>122</v>
       </c>
       <c r="H19" s="7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I19" s="7">
-        <v>13799</v>
+        <v>12671</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>123</v>
@@ -3239,7 +3209,7 @@
         <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,34 +3218,34 @@
         <v>46</v>
       </c>
       <c r="C20" s="7">
+        <v>44</v>
+      </c>
+      <c r="D20" s="7">
+        <v>30863</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="7">
         <v>46</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>31033</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H20" s="7">
-        <v>44</v>
-      </c>
-      <c r="I20" s="7">
-        <v>30863</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>90</v>
@@ -3284,13 +3254,13 @@
         <v>61896</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,25 +3269,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>77</v>
+      </c>
+      <c r="D21" s="7">
+        <v>53526</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="7">
         <v>73</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>49040</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="7">
-        <v>77</v>
-      </c>
-      <c r="I21" s="7">
-        <v>53526</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>56</v>
@@ -3352,34 +3322,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2339</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="7">
         <v>3</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>1885</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="7">
-        <v>4</v>
-      </c>
-      <c r="I22" s="7">
-        <v>2339</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -3388,13 +3358,13 @@
         <v>4224</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,34 +3373,34 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
+        <v>8</v>
+      </c>
+      <c r="D23" s="7">
+        <v>5331</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="7">
         <v>3</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>1745</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="K23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H23" s="7">
-        <v>8</v>
-      </c>
-      <c r="I23" s="7">
-        <v>5331</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -3439,13 +3409,13 @@
         <v>7076</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,34 +3424,34 @@
         <v>26</v>
       </c>
       <c r="C24" s="7">
+        <v>57</v>
+      </c>
+      <c r="D24" s="7">
+        <v>38652</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24" s="7">
         <v>47</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>30696</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H24" s="7">
-        <v>57</v>
-      </c>
-      <c r="I24" s="7">
-        <v>38652</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M24" s="7">
         <v>104</v>
@@ -3490,13 +3460,13 @@
         <v>69348</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,34 +3475,34 @@
         <v>36</v>
       </c>
       <c r="C25" s="7">
+        <v>115</v>
+      </c>
+      <c r="D25" s="7">
+        <v>75387</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H25" s="7">
         <v>111</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>73793</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H25" s="7">
-        <v>115</v>
-      </c>
-      <c r="I25" s="7">
-        <v>75387</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>226</v>
@@ -3541,13 +3511,13 @@
         <v>149179</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,34 +3526,34 @@
         <v>46</v>
       </c>
       <c r="C26" s="7">
+        <v>246</v>
+      </c>
+      <c r="D26" s="7">
+        <v>167484</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H26" s="7">
         <v>300</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>200257</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H26" s="7">
-        <v>246</v>
-      </c>
-      <c r="I26" s="7">
-        <v>167484</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>546</v>
@@ -3592,13 +3562,13 @@
         <v>367741</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,25 +3577,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>430</v>
+      </c>
+      <c r="D27" s="7">
+        <v>289193</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7">
         <v>464</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>308376</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
-        <v>430</v>
-      </c>
-      <c r="I27" s="7">
-        <v>289193</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>56</v>
@@ -3654,7 +3624,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3673,7 +3643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C630D6-2C8C-4703-8408-B2B145367FE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0ABBEA3-1B3A-4A4A-874B-7866AF9BF92B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3690,7 +3660,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3794,31 +3764,31 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>823</v>
+        <v>627</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>627</v>
+        <v>823</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3827,13 +3797,13 @@
         <v>1450</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,34 +3812,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3878,13 +3848,13 @@
         <v>627</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>68</v>
+        <v>186</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,34 +3863,34 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>11542</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="7">
         <v>14</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>10210</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="J6" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H6" s="7">
-        <v>16</v>
-      </c>
-      <c r="I6" s="7">
-        <v>11542</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M6" s="7">
         <v>30</v>
@@ -3929,13 +3899,13 @@
         <v>21752</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,34 +3914,34 @@
         <v>36</v>
       </c>
       <c r="C7" s="7">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7">
+        <v>17631</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H7" s="7">
         <v>23</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>16163</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="H7" s="7">
-        <v>24</v>
-      </c>
-      <c r="I7" s="7">
-        <v>17631</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>47</v>
@@ -3980,13 +3950,13 @@
         <v>33794</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,34 +3965,34 @@
         <v>46</v>
       </c>
       <c r="C8" s="7">
+        <v>31</v>
+      </c>
+      <c r="D8" s="7">
+        <v>21199</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="7">
         <v>26</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>17965</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="H8" s="7">
-        <v>31</v>
-      </c>
-      <c r="I8" s="7">
-        <v>21199</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>57</v>
@@ -4031,13 +4001,13 @@
         <v>39164</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,25 +4016,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>73</v>
+      </c>
+      <c r="D9" s="7">
+        <v>51626</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="7">
         <v>64</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45162</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="7">
-        <v>73</v>
-      </c>
-      <c r="I9" s="7">
-        <v>51626</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>56</v>
@@ -4099,34 +4069,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3071</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H10" s="7">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>1954</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3071</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -4135,13 +4105,13 @@
         <v>5025</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,34 +4120,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7">
+        <v>5923</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H11" s="7">
         <v>6</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>3872</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H11" s="7">
-        <v>9</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5923</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>228</v>
+        <v>65</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -4186,13 +4156,13 @@
         <v>9795</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,34 +4171,34 @@
         <v>26</v>
       </c>
       <c r="C12" s="7">
+        <v>52</v>
+      </c>
+      <c r="D12" s="7">
+        <v>37418</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H12" s="7">
         <v>62</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>43829</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H12" s="7">
-        <v>52</v>
-      </c>
-      <c r="I12" s="7">
-        <v>37418</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>239</v>
+        <v>44</v>
       </c>
       <c r="M12" s="7">
         <v>114</v>
@@ -4237,13 +4207,13 @@
         <v>81247</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,34 +4222,34 @@
         <v>36</v>
       </c>
       <c r="C13" s="7">
+        <v>90</v>
+      </c>
+      <c r="D13" s="7">
+        <v>61390</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H13" s="7">
         <v>96</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>65540</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H13" s="7">
-        <v>90</v>
-      </c>
-      <c r="I13" s="7">
-        <v>61390</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M13" s="7">
         <v>186</v>
@@ -4288,13 +4258,13 @@
         <v>126930</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,34 +4273,34 @@
         <v>46</v>
       </c>
       <c r="C14" s="7">
+        <v>131</v>
+      </c>
+      <c r="D14" s="7">
+        <v>91946</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H14" s="7">
         <v>161</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>109569</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H14" s="7">
-        <v>131</v>
-      </c>
-      <c r="I14" s="7">
-        <v>91946</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M14" s="7">
         <v>292</v>
@@ -4339,13 +4309,13 @@
         <v>201516</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,25 +4324,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>199748</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="7">
         <v>328</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>224765</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>199748</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>56</v>
@@ -4407,34 +4377,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3605</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>607</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3605</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -4443,13 +4413,13 @@
         <v>4212</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>266</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,31 +4431,31 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>269</v>
+        <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4494,13 +4464,13 @@
         <v>1545</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,34 +4479,34 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>18</v>
+      </c>
+      <c r="D18" s="7">
+        <v>12350</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H18" s="7">
         <v>16</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>10907</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H18" s="7">
-        <v>18</v>
-      </c>
-      <c r="I18" s="7">
-        <v>12350</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M18" s="7">
         <v>34</v>
@@ -4545,13 +4515,13 @@
         <v>23257</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,34 +4530,34 @@
         <v>36</v>
       </c>
       <c r="C19" s="7">
+        <v>25</v>
+      </c>
+      <c r="D19" s="7">
+        <v>18870</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H19" s="7">
         <v>29</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>19367</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H19" s="7">
-        <v>25</v>
-      </c>
-      <c r="I19" s="7">
-        <v>18870</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>42</v>
+        <v>281</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -4596,13 +4566,13 @@
         <v>38236</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,34 +4581,34 @@
         <v>46</v>
       </c>
       <c r="C20" s="7">
+        <v>36</v>
+      </c>
+      <c r="D20" s="7">
+        <v>25209</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H20" s="7">
         <v>35</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>24494</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="H20" s="7">
-        <v>36</v>
-      </c>
-      <c r="I20" s="7">
-        <v>25209</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M20" s="7">
         <v>71</v>
@@ -4647,13 +4617,13 @@
         <v>49703</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>296</v>
+        <v>205</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,25 +4632,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>85</v>
+      </c>
+      <c r="D21" s="7">
+        <v>60801</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="7">
         <v>82</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>56152</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="7">
-        <v>85</v>
-      </c>
-      <c r="I21" s="7">
-        <v>60801</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>56</v>
@@ -4715,34 +4685,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>10</v>
+      </c>
+      <c r="D22" s="7">
+        <v>7303</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H22" s="7">
         <v>5</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>3384</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H22" s="7">
-        <v>10</v>
-      </c>
-      <c r="I22" s="7">
-        <v>7303</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>66</v>
+        <v>297</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -4751,13 +4721,13 @@
         <v>10687</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>304</v>
+        <v>141</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,34 +4736,34 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
+        <v>11</v>
+      </c>
+      <c r="D23" s="7">
+        <v>7317</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H23" s="7">
         <v>7</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>4650</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H23" s="7">
-        <v>11</v>
-      </c>
-      <c r="I23" s="7">
-        <v>7317</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>302</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -4802,13 +4772,13 @@
         <v>11967</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,34 +4787,34 @@
         <v>26</v>
       </c>
       <c r="C24" s="7">
+        <v>86</v>
+      </c>
+      <c r="D24" s="7">
+        <v>61309</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H24" s="7">
         <v>92</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>64946</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H24" s="7">
-        <v>86</v>
-      </c>
-      <c r="I24" s="7">
-        <v>61309</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M24" s="7">
         <v>178</v>
@@ -4853,13 +4823,13 @@
         <v>126256</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,34 +4838,34 @@
         <v>36</v>
       </c>
       <c r="C25" s="7">
+        <v>139</v>
+      </c>
+      <c r="D25" s="7">
+        <v>97891</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H25" s="7">
         <v>148</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>101070</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H25" s="7">
-        <v>139</v>
-      </c>
-      <c r="I25" s="7">
-        <v>97891</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M25" s="7">
         <v>287</v>
@@ -4904,13 +4874,13 @@
         <v>198960</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,34 +4889,34 @@
         <v>46</v>
       </c>
       <c r="C26" s="7">
+        <v>198</v>
+      </c>
+      <c r="D26" s="7">
+        <v>138354</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H26" s="7">
         <v>222</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>152028</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H26" s="7">
-        <v>198</v>
-      </c>
-      <c r="I26" s="7">
-        <v>138354</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M26" s="7">
         <v>420</v>
@@ -4955,13 +4925,13 @@
         <v>290382</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>337</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,25 +4940,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>444</v>
+      </c>
+      <c r="D27" s="7">
+        <v>312174</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7">
         <v>474</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>326078</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
-        <v>444</v>
-      </c>
-      <c r="I27" s="7">
-        <v>312174</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>56</v>
@@ -5017,7 +4987,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5036,7 +5006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C918C1-5D7C-4CBB-AD73-3BB708011A32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7A0A3E-30BF-4061-81DE-3E32CF6067B4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5053,7 +5023,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5154,34 +5124,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>891</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5190,13 +5160,13 @@
         <v>891</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>342</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,34 +5175,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>713</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1234</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -5241,13 +5211,13 @@
         <v>1947</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>349</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,34 +5226,34 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6231</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>2513</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="H6" s="7">
-        <v>9</v>
-      </c>
-      <c r="I6" s="7">
-        <v>6231</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>194</v>
+        <v>346</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -5292,13 +5262,13 @@
         <v>8743</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>156</v>
+        <v>348</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,34 +5277,34 @@
         <v>36</v>
       </c>
       <c r="C7" s="7">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7">
+        <v>8719</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H7" s="7">
         <v>16</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>11227</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="H7" s="7">
-        <v>12</v>
-      </c>
-      <c r="I7" s="7">
-        <v>8719</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -5343,13 +5313,13 @@
         <v>19946</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,34 +5328,34 @@
         <v>46</v>
       </c>
       <c r="C8" s="7">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7">
+        <v>14422</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H8" s="7">
         <v>29</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>21294</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="H8" s="7">
-        <v>21</v>
-      </c>
-      <c r="I8" s="7">
-        <v>14422</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M8" s="7">
         <v>50</v>
@@ -5394,13 +5364,13 @@
         <v>35717</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,25 +5379,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>30606</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="7">
-        <v>44</v>
-      </c>
-      <c r="I9" s="7">
-        <v>30606</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>56</v>
@@ -5462,34 +5432,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1745</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>644</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1745</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>375</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -5498,13 +5468,13 @@
         <v>2389</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,34 +5483,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7">
+        <v>6277</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H11" s="7">
         <v>3</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>1866</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="H11" s="7">
-        <v>9</v>
-      </c>
-      <c r="I11" s="7">
-        <v>6277</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -5549,13 +5519,13 @@
         <v>8144</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>341</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,34 +5534,34 @@
         <v>26</v>
       </c>
       <c r="C12" s="7">
+        <v>57</v>
+      </c>
+      <c r="D12" s="7">
+        <v>39669</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H12" s="7">
         <v>46</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>32915</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="H12" s="7">
-        <v>57</v>
-      </c>
-      <c r="I12" s="7">
-        <v>39669</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="M12" s="7">
         <v>103</v>
@@ -5600,13 +5570,13 @@
         <v>72584</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,34 +5585,34 @@
         <v>36</v>
       </c>
       <c r="C13" s="7">
+        <v>111</v>
+      </c>
+      <c r="D13" s="7">
+        <v>75842</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H13" s="7">
         <v>113</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>82859</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="H13" s="7">
-        <v>111</v>
-      </c>
-      <c r="I13" s="7">
-        <v>75842</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>250</v>
+        <v>392</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M13" s="7">
         <v>224</v>
@@ -5651,13 +5621,13 @@
         <v>158701</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,34 +5636,34 @@
         <v>46</v>
       </c>
       <c r="C14" s="7">
+        <v>169</v>
+      </c>
+      <c r="D14" s="7">
+        <v>120464</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H14" s="7">
         <v>161</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>118779</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="H14" s="7">
-        <v>169</v>
-      </c>
-      <c r="I14" s="7">
-        <v>120464</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M14" s="7">
         <v>330</v>
@@ -5702,13 +5672,13 @@
         <v>239244</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,25 +5687,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>349</v>
+      </c>
+      <c r="D15" s="7">
+        <v>243998</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="7">
         <v>324</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>237063</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="7">
-        <v>349</v>
-      </c>
-      <c r="I15" s="7">
-        <v>243998</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>56</v>
@@ -5776,13 +5746,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5791,13 +5761,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5806,13 +5776,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,31 +5794,31 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>713</v>
+        <v>792</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>792</v>
+        <v>713</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>313</v>
+        <v>411</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -5857,13 +5827,13 @@
         <v>1505</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,34 +5842,34 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7">
+        <v>12071</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H18" s="7">
         <v>14</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>9654</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H18" s="7">
-        <v>17</v>
-      </c>
-      <c r="I18" s="7">
-        <v>12071</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M18" s="7">
         <v>31</v>
@@ -5908,13 +5878,13 @@
         <v>21725</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>344</v>
+        <v>422</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5923,34 +5893,34 @@
         <v>36</v>
       </c>
       <c r="C19" s="7">
+        <v>41</v>
+      </c>
+      <c r="D19" s="7">
+        <v>29202</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H19" s="7">
         <v>36</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>25388</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="H19" s="7">
-        <v>41</v>
-      </c>
-      <c r="I19" s="7">
-        <v>29202</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>77</v>
@@ -5959,13 +5929,13 @@
         <v>54590</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,34 +5944,34 @@
         <v>46</v>
       </c>
       <c r="C20" s="7">
+        <v>41</v>
+      </c>
+      <c r="D20" s="7">
+        <v>29025</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H20" s="7">
         <v>54</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>39747</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="H20" s="7">
-        <v>41</v>
-      </c>
-      <c r="I20" s="7">
-        <v>29025</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -6010,13 +5980,13 @@
         <v>68773</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,25 +5995,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>100</v>
+      </c>
+      <c r="D21" s="7">
+        <v>71090</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="7">
         <v>105</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>75502</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="7">
-        <v>100</v>
-      </c>
-      <c r="I21" s="7">
-        <v>71090</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>56</v>
@@ -6078,34 +6048,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>3</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1745</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H22" s="7">
         <v>2</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>1535</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H22" s="7">
-        <v>3</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1745</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>443</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>444</v>
+        <v>302</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -6114,13 +6084,13 @@
         <v>3281</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>305</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,34 +6099,34 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
+        <v>12</v>
+      </c>
+      <c r="D23" s="7">
+        <v>8304</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="H23" s="7">
         <v>5</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>3292</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" s="7">
-        <v>12</v>
-      </c>
-      <c r="I23" s="7">
-        <v>8304</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>448</v>
+        <v>411</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>232</v>
+        <v>446</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>449</v>
+        <v>23</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -6165,13 +6135,13 @@
         <v>11596</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>304</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,34 +6150,34 @@
         <v>26</v>
       </c>
       <c r="C24" s="7">
+        <v>83</v>
+      </c>
+      <c r="D24" s="7">
+        <v>57970</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="H24" s="7">
         <v>64</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>45081</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="H24" s="7">
-        <v>83</v>
-      </c>
-      <c r="I24" s="7">
-        <v>57970</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="M24" s="7">
         <v>147</v>
@@ -6216,13 +6186,13 @@
         <v>103052</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6231,34 +6201,34 @@
         <v>36</v>
       </c>
       <c r="C25" s="7">
+        <v>164</v>
+      </c>
+      <c r="D25" s="7">
+        <v>113763</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H25" s="7">
         <v>165</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>119474</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="H25" s="7">
-        <v>164</v>
-      </c>
-      <c r="I25" s="7">
-        <v>113763</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="M25" s="7">
         <v>329</v>
@@ -6267,13 +6237,13 @@
         <v>233236</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6282,34 +6252,34 @@
         <v>46</v>
       </c>
       <c r="C26" s="7">
+        <v>231</v>
+      </c>
+      <c r="D26" s="7">
+        <v>163912</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="H26" s="7">
         <v>244</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>179821</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="H26" s="7">
-        <v>231</v>
-      </c>
-      <c r="I26" s="7">
-        <v>163912</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="M26" s="7">
         <v>475</v>
@@ -6318,13 +6288,13 @@
         <v>343733</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,25 +6303,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>493</v>
+      </c>
+      <c r="D27" s="7">
+        <v>345694</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7">
         <v>480</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>349203</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
-        <v>493</v>
-      </c>
-      <c r="I27" s="7">
-        <v>345694</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>56</v>
@@ -6380,7 +6350,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -6399,7 +6369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D60C5E8-1E9A-4ACB-AA08-0B66649F1463}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69EB795E-9CA3-46D7-8A3A-2D4C478AF0B1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6416,7 +6386,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6517,49 +6487,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>872</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>476</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>989</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>989</v>
+        <v>872</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6568,49 +6538,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
-        <v>916</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>843</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>482</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>916</v>
+        <v>843</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>228</v>
+        <v>484</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,46 +6592,46 @@
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>1228</v>
+        <v>1139</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>1168</v>
+        <v>1337</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>2397</v>
+        <v>2477</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>493</v>
+        <v>221</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6670,49 +6640,49 @@
         <v>36</v>
       </c>
       <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3871</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="H7" s="7">
         <v>9</v>
       </c>
-      <c r="D7" s="7">
-        <v>6625</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>6401</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="H7" s="7">
-        <v>6</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4113</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>10738</v>
+        <v>10272</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,46 +6694,46 @@
         <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>8148</v>
+        <v>6525</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>7640</v>
+        <v>8172</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
       </c>
       <c r="N8" s="7">
-        <v>15787</v>
+        <v>14698</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6772,25 +6742,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7">
+        <v>12407</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="7">
         <v>21</v>
       </c>
-      <c r="D9" s="7">
-        <v>16918</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="7">
-        <v>18</v>
-      </c>
       <c r="I9" s="7">
-        <v>13910</v>
+        <v>16754</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>56</v>
@@ -6805,7 +6775,7 @@
         <v>39</v>
       </c>
       <c r="N9" s="7">
-        <v>30827</v>
+        <v>29162</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>56</v>
@@ -6825,49 +6795,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2362</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="H10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
-        <v>2774</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
       <c r="I10" s="7">
-        <v>2806</v>
+        <v>2697</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>413</v>
+        <v>294</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>16</v>
+        <v>510</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>5581</v>
+        <v>5058</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>516</v>
+        <v>110</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>517</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6876,49 +6846,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1013</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="H11" s="7">
         <v>4</v>
       </c>
-      <c r="D11" s="7">
-        <v>3717</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
       <c r="I11" s="7">
-        <v>1184</v>
+        <v>3792</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>522</v>
+        <v>305</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>515</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>4902</v>
+        <v>4805</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>524</v>
+        <v>294</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>224</v>
+        <v>517</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6927,49 +6897,49 @@
         <v>26</v>
       </c>
       <c r="C12" s="7">
+        <v>21</v>
+      </c>
+      <c r="D12" s="7">
+        <v>14063</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="7">
         <v>29</v>
       </c>
-      <c r="D12" s="7">
-        <v>31631</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="H12" s="7">
-        <v>21</v>
-      </c>
       <c r="I12" s="7">
-        <v>14535</v>
+        <v>32780</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="M12" s="7">
         <v>50</v>
       </c>
       <c r="N12" s="7">
-        <v>46166</v>
+        <v>46843</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>158</v>
+        <v>524</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6978,49 +6948,49 @@
         <v>36</v>
       </c>
       <c r="C13" s="7">
+        <v>71</v>
+      </c>
+      <c r="D13" s="7">
+        <v>49671</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="H13" s="7">
         <v>64</v>
       </c>
-      <c r="D13" s="7">
-        <v>56727</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="H13" s="7">
-        <v>71</v>
-      </c>
       <c r="I13" s="7">
-        <v>53474</v>
+        <v>54228</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>166</v>
+        <v>311</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
       </c>
       <c r="N13" s="7">
-        <v>110201</v>
+        <v>103899</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7029,49 +6999,49 @@
         <v>46</v>
       </c>
       <c r="C14" s="7">
+        <v>99</v>
+      </c>
+      <c r="D14" s="7">
+        <v>92205</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="H14" s="7">
         <v>115</v>
       </c>
-      <c r="D14" s="7">
-        <v>102254</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="H14" s="7">
-        <v>99</v>
-      </c>
       <c r="I14" s="7">
-        <v>76088</v>
+        <v>109203</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="M14" s="7">
         <v>214</v>
       </c>
       <c r="N14" s="7">
-        <v>178342</v>
+        <v>201408</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>549</v>
+        <v>472</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,25 +7050,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>195</v>
+      </c>
+      <c r="D15" s="7">
+        <v>159313</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="7">
         <v>217</v>
       </c>
-      <c r="D15" s="7">
-        <v>197103</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="7">
-        <v>195</v>
-      </c>
       <c r="I15" s="7">
-        <v>148088</v>
+        <v>202700</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>56</v>
@@ -7113,7 +7083,7 @@
         <v>412</v>
       </c>
       <c r="N15" s="7">
-        <v>345191</v>
+        <v>362013</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>56</v>
@@ -7133,49 +7103,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>723</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>732</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>552</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>553</v>
+        <v>300</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>554</v>
+        <v>375</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7190,13 +7160,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -7205,13 +7175,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>556</v>
+        <v>300</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -7220,13 +7190,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>148</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7238,46 +7208,46 @@
         <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>4972</v>
+        <v>4832</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>4983</v>
+        <v>5060</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
       </c>
       <c r="N18" s="7">
-        <v>9956</v>
+        <v>9891</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7286,49 +7256,49 @@
         <v>36</v>
       </c>
       <c r="C19" s="7">
+        <v>13</v>
+      </c>
+      <c r="D19" s="7">
+        <v>9396</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="H19" s="7">
         <v>20</v>
       </c>
-      <c r="D19" s="7">
-        <v>15894</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="H19" s="7">
-        <v>13</v>
-      </c>
       <c r="I19" s="7">
-        <v>9922</v>
+        <v>15466</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
       </c>
       <c r="N19" s="7">
-        <v>25815</v>
+        <v>24862</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7337,49 +7307,49 @@
         <v>46</v>
       </c>
       <c r="C20" s="7">
+        <v>37</v>
+      </c>
+      <c r="D20" s="7">
+        <v>23801</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="H20" s="7">
         <v>43</v>
       </c>
-      <c r="D20" s="7">
-        <v>32294</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="H20" s="7">
-        <v>37</v>
-      </c>
       <c r="I20" s="7">
-        <v>24911</v>
+        <v>32168</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="M20" s="7">
         <v>80</v>
       </c>
       <c r="N20" s="7">
-        <v>57205</v>
+        <v>55968</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>257</v>
+        <v>571</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7388,25 +7358,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>57</v>
+      </c>
+      <c r="D21" s="7">
+        <v>38752</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="7">
         <v>69</v>
       </c>
-      <c r="D21" s="7">
-        <v>53160</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="7">
-        <v>57</v>
-      </c>
       <c r="I21" s="7">
-        <v>40548</v>
+        <v>52693</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>56</v>
@@ -7421,7 +7391,7 @@
         <v>126</v>
       </c>
       <c r="N21" s="7">
-        <v>93708</v>
+        <v>91445</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>56</v>
@@ -7444,46 +7414,46 @@
         <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>2774</v>
+        <v>3957</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>299</v>
+        <v>573</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
       </c>
       <c r="I22" s="7">
-        <v>4527</v>
+        <v>2697</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>584</v>
+        <v>512</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
       </c>
       <c r="N22" s="7">
-        <v>7301</v>
+        <v>6653</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>585</v>
+        <v>61</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7492,49 +7462,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1013</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="H23" s="7">
         <v>5</v>
       </c>
-      <c r="D23" s="7">
-        <v>4634</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1</v>
-      </c>
       <c r="I23" s="7">
-        <v>1184</v>
+        <v>4636</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>581</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
       </c>
       <c r="N23" s="7">
-        <v>5818</v>
+        <v>5648</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>520</v>
+        <v>443</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7543,49 +7513,49 @@
         <v>26</v>
       </c>
       <c r="C24" s="7">
+        <v>29</v>
+      </c>
+      <c r="D24" s="7">
+        <v>20034</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="H24" s="7">
         <v>37</v>
       </c>
-      <c r="D24" s="7">
-        <v>37831</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="H24" s="7">
-        <v>29</v>
-      </c>
       <c r="I24" s="7">
-        <v>20687</v>
+        <v>39177</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="M24" s="7">
         <v>66</v>
       </c>
       <c r="N24" s="7">
-        <v>58518</v>
+        <v>59211</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7594,49 +7564,49 @@
         <v>36</v>
       </c>
       <c r="C25" s="7">
+        <v>90</v>
+      </c>
+      <c r="D25" s="7">
+        <v>62938</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="H25" s="7">
         <v>93</v>
       </c>
-      <c r="D25" s="7">
-        <v>79246</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="H25" s="7">
-        <v>90</v>
-      </c>
       <c r="I25" s="7">
-        <v>67509</v>
+        <v>76095</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="M25" s="7">
         <v>183</v>
       </c>
       <c r="N25" s="7">
-        <v>146755</v>
+        <v>139033</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7645,49 +7615,49 @@
         <v>46</v>
       </c>
       <c r="C26" s="7">
+        <v>145</v>
+      </c>
+      <c r="D26" s="7">
+        <v>122530</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="H26" s="7">
         <v>167</v>
       </c>
-      <c r="D26" s="7">
-        <v>142695</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="H26" s="7">
-        <v>145</v>
-      </c>
       <c r="I26" s="7">
-        <v>108638</v>
+        <v>149543</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>616</v>
+        <v>170</v>
       </c>
       <c r="M26" s="7">
         <v>312</v>
       </c>
       <c r="N26" s="7">
-        <v>251333</v>
+        <v>272074</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7696,25 +7666,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>270</v>
+      </c>
+      <c r="D27" s="7">
+        <v>210472</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7">
         <v>307</v>
       </c>
-      <c r="D27" s="7">
-        <v>267180</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
-        <v>270</v>
-      </c>
       <c r="I27" s="7">
-        <v>202546</v>
+        <v>272147</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>56</v>
@@ -7729,7 +7699,7 @@
         <v>577</v>
       </c>
       <c r="N27" s="7">
-        <v>469726</v>
+        <v>482619</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>56</v>
@@ -7743,7 +7713,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
